--- a/Ikea-link copy.xlsx
+++ b/Ikea-link copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>storage-organisation</t>
   </si>
@@ -22,10 +22,22 @@
     <t>https://www.ikea.cn/cn/en/cat/bookcases-shelving-units-st002/</t>
   </si>
   <si>
-    <t>https://www.ikea.cn/cn/en/cat/storage-solution-systems-46052/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/cabinets-cupboards-st003/</t>
+    <t>Winter holidays</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/holiday-lights-49150/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/holiday-pots-plants-49151/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/christmas-decoration-49149/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/holiday-textiles-49152/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/holiday-cooking-baking-49154/</t>
   </si>
 </sst>
 </file>
@@ -33,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +63,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Roboto"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -101,12 +119,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -414,14 +438,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="54.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="61.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="54.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="61.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -432,20 +456,44 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Ikea-link copy.xlsx
+++ b/Ikea-link copy.xlsx
@@ -456,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -464,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -472,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -488,7 +488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
